--- a/data.xlsx
+++ b/data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitSources\Skola\UPCE\DSA\DSA_Janak_Semestralni_prace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42EBEE4D-0386-43C5-9620-B349001B3AE6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA25003-CF34-4BB9-B5FD-73D35741721E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2610" yWindow="975" windowWidth="11595" windowHeight="11685" xr2:uid="{7215D542-AC78-416B-9A73-9E67AB23EAFC}"/>
+    <workbookView xWindow="13455" yWindow="1905" windowWidth="11595" windowHeight="11685" activeTab="1" xr2:uid="{7215D542-AC78-416B-9A73-9E67AB23EAFC}"/>
   </bookViews>
   <sheets>
-    <sheet name="List1" sheetId="1" r:id="rId1"/>
+    <sheet name="Vertexes Big" sheetId="1" r:id="rId1"/>
+    <sheet name="Vertexes Small" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="3">
   <si>
     <t>Junction</t>
   </si>
@@ -394,7 +395,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{683208C5-0FEE-4434-86B2-81221BA3932B}">
   <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1:D60"/>
     </sheetView>
   </sheetViews>
@@ -1307,4 +1308,353 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CE89D6-CAE1-45A3-9B7C-F6BF2046DAC5}">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="70.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>321</v>
+      </c>
+      <c r="B1">
+        <v>240</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="str">
+        <f>"("&amp;A1&amp;", "&amp;B1&amp;", VertexType."&amp;C1&amp;"),"</f>
+        <v>(321, 240, VertexType.Junction),</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>90</v>
+      </c>
+      <c r="B2">
+        <v>153</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="str">
+        <f t="shared" ref="D2:D60" si="0">"("&amp;A2&amp;", "&amp;B2&amp;", VertexType."&amp;C2&amp;"),"</f>
+        <v>(90, 153, VertexType.Junction),</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>285</v>
+      </c>
+      <c r="B3">
+        <v>345</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" si="0"/>
+        <v>(285, 345, VertexType.Junction),</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>133</v>
+      </c>
+      <c r="B4">
+        <v>379</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>(133, 379, VertexType.Junction),</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>69</v>
+      </c>
+      <c r="B5">
+        <v>346</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>(69, 346, VertexType.Junction),</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>333</v>
+      </c>
+      <c r="B6">
+        <v>146</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>(333, 146, VertexType.Junction),</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>381</v>
+      </c>
+      <c r="B7">
+        <v>360</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>(381, 360, VertexType.Junction),</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>195</v>
+      </c>
+      <c r="B8">
+        <v>207</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>(195, 207, VertexType.Junction),</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>117</v>
+      </c>
+      <c r="B9">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>(117, 40, VertexType.Junction),</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>270</v>
+      </c>
+      <c r="B10">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>(270, 35, VertexType.Junction),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>460</v>
+      </c>
+      <c r="B11">
+        <v>100</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>(460, 100, VertexType.Junction),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>420</v>
+      </c>
+      <c r="B12">
+        <v>189</v>
+      </c>
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>(420, 189, VertexType.Junction),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>500</v>
+      </c>
+      <c r="B13">
+        <v>390</v>
+      </c>
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>(500, 390, VertexType.Junction),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>500</v>
+      </c>
+      <c r="B14">
+        <v>283</v>
+      </c>
+      <c r="C14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>(500, 283, VertexType.Junction),</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>580</v>
+      </c>
+      <c r="B15">
+        <v>186</v>
+      </c>
+      <c r="C15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>(580, 186, VertexType.Junction),</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>219</v>
+      </c>
+      <c r="B16">
+        <v>114</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>(219, 114, VertexType.RestArea),</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>186</v>
+      </c>
+      <c r="B17">
+        <v>300</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>(186, 300, VertexType.RestArea),</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>405</v>
+      </c>
+      <c r="B18">
+        <v>246</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>(405, 246, VertexType.RestArea),</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>234</v>
+      </c>
+      <c r="B19">
+        <v>428</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>(234, 428, VertexType.Stop),</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>570</v>
+      </c>
+      <c r="B20">
+        <v>296</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>(570, 296, VertexType.Stop),</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>60</v>
+      </c>
+      <c r="B21">
+        <v>219</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>(60, 219, VertexType.Stop),</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>372</v>
+      </c>
+      <c r="B22">
+        <v>60</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>(372, 60, VertexType.Stop),</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>